--- a/src/main/java/reports/TestExecutionLog.xlsx
+++ b/src/main/java/reports/TestExecutionLog.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="112">
   <si>
     <t>Serial Number</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Log Message</t>
   </si>
   <si>
-    <t>Sign In Sign Out</t>
+    <t>Sign In</t>
   </si>
   <si>
     <t>Click On Allow LocationAccess</t>
@@ -62,13 +62,292 @@
     <t>User clicked on login button</t>
   </si>
   <si>
+    <t>Category Search</t>
+  </si>
+  <si>
     <t>Click On HamburgerIcon</t>
   </si>
   <si>
     <t>User clicked on hamburger icon</t>
   </si>
   <si>
-    <t>Verifying the User</t>
+    <t>ClickOnSearchIcon</t>
+  </si>
+  <si>
+    <t>User clicked on search icon</t>
+  </si>
+  <si>
+    <t>Search Tab Clicked</t>
+  </si>
+  <si>
+    <t>User clicked the searchTab</t>
+  </si>
+  <si>
+    <t>Entered Value</t>
+  </si>
+  <si>
+    <t>User entered the text:- FRUITS AND VEGETABLES</t>
+  </si>
+  <si>
+    <t>View the Search</t>
+  </si>
+  <si>
+    <t>Pressed Enter button after entering search value</t>
+  </si>
+  <si>
+    <t>Validate Category</t>
+  </si>
+  <si>
+    <t>Valid Category is displayed</t>
+  </si>
+  <si>
+    <t>Click On HomeIcon</t>
+  </si>
+  <si>
+    <t>User clicked on Home Icon</t>
+  </si>
+  <si>
+    <t>Item Search</t>
+  </si>
+  <si>
+    <t>User entered the text:- Chilli Red - 100G</t>
+  </si>
+  <si>
+    <t>Validate Item</t>
+  </si>
+  <si>
+    <t>Valid Item is displayed</t>
+  </si>
+  <si>
+    <t>Language Preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Language Tab </t>
+  </si>
+  <si>
+    <t>User clicked on Language Tab</t>
+  </si>
+  <si>
+    <t>Arabic Language selected</t>
+  </si>
+  <si>
+    <t>User selected Arabic Language</t>
+  </si>
+  <si>
+    <t>Validate Language</t>
+  </si>
+  <si>
+    <t>Valid Language is dispalyed</t>
+  </si>
+  <si>
+    <t>English Language selected</t>
+  </si>
+  <si>
+    <t>User selected English Language</t>
+  </si>
+  <si>
+    <t>Subtract Or Add Product From Cart</t>
+  </si>
+  <si>
+    <t>User entered the text:- Floral</t>
+  </si>
+  <si>
+    <t>Click Add  Button</t>
+  </si>
+  <si>
+    <t>User clicked on add icon to add product into the cart</t>
+  </si>
+  <si>
+    <t>Click On CartIcon</t>
+  </si>
+  <si>
+    <t>User clicked on cart icon</t>
+  </si>
+  <si>
+    <t>RemovingItem</t>
+  </si>
+  <si>
+    <t>User Clicked on removing Item from Cart</t>
+  </si>
+  <si>
+    <t>Verifying the Quantity</t>
+  </si>
+  <si>
+    <t>Verifying the Quantity of Item in Cart</t>
+  </si>
+  <si>
+    <t>Verifying the Quantity Value</t>
+  </si>
+  <si>
+    <t>Verifying the Quantity Value from Cart</t>
+  </si>
+  <si>
+    <t>Add Product To Cart</t>
+  </si>
+  <si>
+    <t>Validate the checkout button</t>
+  </si>
+  <si>
+    <t>Validating the display of checkout Button</t>
+  </si>
+  <si>
+    <t>Home Page Element Visibility</t>
+  </si>
+  <si>
+    <t>SearchTab Visibility</t>
+  </si>
+  <si>
+    <t>Verifying the appearance of Search Tab</t>
+  </si>
+  <si>
+    <t>Click On Back To HomeButton</t>
+  </si>
+  <si>
+    <t>User clicked on Back To Home Button</t>
+  </si>
+  <si>
+    <t>Click On NotificationIcon</t>
+  </si>
+  <si>
+    <t>User clicked on Notification Icon</t>
+  </si>
+  <si>
+    <t>Notification Image Visibility</t>
+  </si>
+  <si>
+    <t>Verifying the Notification Image</t>
+  </si>
+  <si>
+    <t>Change Password Visibility</t>
+  </si>
+  <si>
+    <t>Verifying the change password</t>
+  </si>
+  <si>
+    <t>Clicked on Weekly Offers</t>
+  </si>
+  <si>
+    <t>User clicked on Weekly Offers Tab</t>
+  </si>
+  <si>
+    <t>Weekly Offers Visibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying the Weekly Offers Page Name </t>
+  </si>
+  <si>
+    <t>Clicked on Exclusive Deals</t>
+  </si>
+  <si>
+    <t>User clicked on Exclusive Deals Tab</t>
+  </si>
+  <si>
+    <t>Clicked on View All Button</t>
+  </si>
+  <si>
+    <t>User clicked on View All Button</t>
+  </si>
+  <si>
+    <t>Sub-Category Visibility</t>
+  </si>
+  <si>
+    <t>Verifying the Sub-Category</t>
+  </si>
+  <si>
+    <t>Verifying SignIn Logo</t>
+  </si>
+  <si>
+    <t>Verifying the Signed In Logo</t>
+  </si>
+  <si>
+    <t>filter Product Test</t>
+  </si>
+  <si>
+    <t>Click Filter  Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicked on FilterButton </t>
+  </si>
+  <si>
+    <t>Click Brand  Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicked on BrandButton </t>
+  </si>
+  <si>
+    <t>Select particular Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicked on particular Brand </t>
+  </si>
+  <si>
+    <t>Click on Apply Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User clicked on apply button </t>
+  </si>
+  <si>
+    <t>Verifying brand product count</t>
+  </si>
+  <si>
+    <t>Verifying the count of product</t>
+  </si>
+  <si>
+    <t>Verifying brand Text</t>
+  </si>
+  <si>
+    <t>Verifying the selected brand Text</t>
+  </si>
+  <si>
+    <t>Order Notification</t>
+  </si>
+  <si>
+    <t>user clicked select substitution</t>
+  </si>
+  <si>
+    <t>user clicked on select substitution button for choosing substition preference</t>
+  </si>
+  <si>
+    <t>user clicked on substitution preference</t>
+  </si>
+  <si>
+    <t>user clicked on replace with equivalent option</t>
+  </si>
+  <si>
+    <t>clicked checkout button</t>
+  </si>
+  <si>
+    <t>user clicked on checkout button</t>
+  </si>
+  <si>
+    <t>enter text in comment section</t>
+  </si>
+  <si>
+    <t>user entered comment related to order</t>
+  </si>
+  <si>
+    <t>choose payment method</t>
+  </si>
+  <si>
+    <t>user clicked on debit card option</t>
+  </si>
+  <si>
+    <t>choose from saved cards</t>
+  </si>
+  <si>
+    <t>user clicked on saved debit card</t>
+  </si>
+  <si>
+    <t>click place order button</t>
+  </si>
+  <si>
+    <t>user clicked on place order button</t>
+  </si>
+  <si>
+    <t>validate presence of order placed tab</t>
+  </si>
+  <si>
+    <t>Verifying the visibility of Order placed tab</t>
   </si>
 </sst>
 </file>
@@ -113,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -203,32 +482,1390 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="0">
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
